--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_010.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_010.xlsx
@@ -31,321 +31,321 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(700000AA1.07) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295037EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Reactor water level control strategies</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
   </si>
   <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Ventilation isolation</t>
-  </si>
-  <si>
-    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AA2.05) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Jet pump operability </t>
-  </si>
-  <si>
-    <t>(600000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Fire alarm</t>
-  </si>
-  <si>
-    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
-  </si>
-  <si>
-    <t>(295037EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Recirculation pump trip/runback</t>
-  </si>
-  <si>
-    <t>(295019AK2.19) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295021AA2.03) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) HPCI shutdown</t>
-  </si>
-  <si>
-    <t>(295026EK2.10) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) LPCS</t>
-  </si>
-  <si>
-    <t>(295025EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295027EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) RHR/LPCI containment spray system mode</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(295032EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) Isolating affected systems</t>
-  </si>
-  <si>
-    <t>(295017AK2.09) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Condenser air removal system</t>
-  </si>
-  <si>
-    <t>(295011AA2.02) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295013AA1.01) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295036EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(510000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Radiation alarm response</t>
-  </si>
-  <si>
-    <t>(215004K4.06) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) IRM/SRMS interlock</t>
-  </si>
-  <si>
-    <t>(223002A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(400000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(300000A3.04) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Automatic isolation</t>
-  </si>
-  <si>
-    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(218000K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(211000K2.02) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Squib valves</t>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295003AK2.01) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Station batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295030EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC </t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
+  </si>
+  <si>
+    <t>(295024EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Drywell integrity</t>
+  </si>
+  <si>
+    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295038EK2.02) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Offgas system</t>
+  </si>
+  <si>
+    <t>(295021AA1.02) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) RHR/shutdown cooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295025EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RCIC operation </t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295019AK2.21) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295001AK2.04) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Component erosion/damage</t>
+  </si>
+  <si>
+    <t>(295020AA2.05) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295009AK2.02) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Reactor water level control</t>
+  </si>
+  <si>
+    <t>(295036EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.7 / 45.6 / 45.8) Systems for emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295032EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.5 / 45.6) RPV emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(218000K2.01) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) ADS logic</t>
   </si>
   <si>
     <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
   </si>
   <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(262001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Breaker control power</t>
+    <t>(262002K3.01) Knowledge of the effect that a loss or malfunction of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(217000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water</t>
   </si>
   <si>
     <t>(215005K4.07) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Flow-biased trip setpoints</t>
   </si>
   <si>
-    <t>(203000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291004K1.04) PUMPS (CFR: 41.3) (CENTRIFUGAL) Consequences of operating a pump dead headed or for extended times without adequate recirculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Instrument air system </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(239002A3.02) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation on high reactor pressure </t>
-  </si>
-  <si>
-    <t>(209002K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Standby liquid control system</t>
-  </si>
-  <si>
-    <t>(264000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(212000K2.03) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS alternate power supplies</t>
-  </si>
-  <si>
-    <t>(215003A2.01) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Power supply degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
-  </si>
-  <si>
-    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
-  </si>
-  <si>
-    <t>(215004K4.01) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
-  </si>
-  <si>
-    <t>(223002A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(288000A2.08) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of component cooling water system</t>
-  </si>
-  <si>
-    <t>(268000A4.02) Ability to manually operate and/or monitor the (SF9 RW) RADWASTE SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Primary containment sump pumps</t>
-  </si>
-  <si>
-    <t>(201003K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) How control rods affect shutdown margin</t>
-  </si>
-  <si>
-    <t>(510001K4.05) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor power reduction</t>
-  </si>
-  <si>
-    <t>(271000A1.13) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Hydrogen gas concentration</t>
-  </si>
-  <si>
-    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (291007K1.10) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reasons for bypassing demineralizers</t>
-  </si>
-  <si>
-    <t>(272000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(204000A3.04) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System interlocks and trips </t>
-  </si>
-  <si>
-    <t>(201005K3.04) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Flux shaping</t>
-  </si>
-  <si>
-    <t>(245000K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) EHC system</t>
-  </si>
-  <si>
-    <t>(216000K2.01) (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION Knowledge of electrical power supplies to the following: (CFR: 41.7) Analog trip system</t>
-  </si>
-  <si>
-    <t>(G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t xml:space="preserve">(264000A3.01) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Starting/loading </t>
+  </si>
+  <si>
+    <t>(212000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(215003A4.01) Ability to manually operate and/or monitor the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) IRM recorder indication</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291006K1.18) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Reasons for noncondensable gas removal</t>
+  </si>
+  <si>
+    <t>(259002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
+  </si>
+  <si>
+    <t>(209002A2.08) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(262001K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(209001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(239002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Suppression pool</t>
+  </si>
+  <si>
+    <t>(261000K4.07) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Elevated release stack</t>
+  </si>
+  <si>
+    <t>(211000A3.06) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) RWCU system isolation</t>
+  </si>
+  <si>
+    <t>(223002K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) Leak detection system</t>
+  </si>
+  <si>
+    <t>(215004A4.04) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS drive control switches</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(300000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Service air pressure</t>
+  </si>
+  <si>
+    <t>(218000A4.01) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS valves</t>
+  </si>
+  <si>
+    <t>(263000A2.01) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Grounds/faults</t>
+  </si>
+  <si>
+    <t>(241000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) AC electrical power</t>
+  </si>
+  <si>
+    <t>(201001A4.01) Ability to manually operate and/or monitor the (SF1 CRDH) CRD HYDRAULIC SYSTEM in the control room: (CFR: 41.5-7 / 41.9 / 41.10 / 45.1-6 / 45.8 / 45.12-13) CRD pumps</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (291002K1.20) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Neutron monitoring indication units</t>
+  </si>
+  <si>
+    <t>(226001A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(202002K2.04) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) DC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(256000A2.02) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(286000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Isolation condenser system (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(216000K5.14) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION: (CFR: 41.5 / 45.3) Density compensation</t>
+  </si>
+  <si>
+    <t>(223001K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) LPCS</t>
+  </si>
+  <si>
+    <t>(201005K4.05) Knowledge of (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) design features and/or interlocks that provide for the following: (CFR: 41.5 to 41.7) Rod withdrawal limiter</t>
+  </si>
+  <si>
+    <t>(290003A3.01) Ability to monitor automatic operation of the (SF9 CRV) CONTROL ROOM VENTILATION including: (CFR: 41.7 / 45.7) Initiation/reconfiguration</t>
+  </si>
+  <si>
+    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
-  </si>
-  <si>
-    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
-  </si>
-  <si>
-    <t>(292008K1.10) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) Explain procedures for adjusting reactor period during the intermediate phase of startup</t>
-  </si>
-  <si>
-    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
-  </si>
-  <si>
-    <t>(293008K1.24) THERMAL HYDRAULICS (CFR: 41.14) (VIODS AND VOID FRACTION) Draw the temperature profile from the centerline of a fuel pellet to the centerline of the channel</t>
-  </si>
-  <si>
-    <t>(293009K1.43) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Cold water addition</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.4.39) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities in emergency plan implementing procedures (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292005K1.12) CONTROL RODS (CFR: 41.1) Describe effects of deep and shallow control rods on axial and radial flux distribution</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293004K1.17) THERMODYNAMIC PROCESS (CFR: 41.14) (THROTTLING AND THE THROTTLING PROCESS) Determine the exit conditions for a throttling process based on the use of steam or water</t>
+  </si>
+  <si>
+    <t>(293006K1.12) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define pump shutoff head, pump runout, and axial thrust</t>
+  </si>
+  <si>
+    <t>(293008K1.27) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the necessity of determining core coolant flow</t>
+  </si>
+  <si>
+    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295037EA2.07) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Containment conditions/isolations</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
     <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
   </si>
   <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA2.05) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295001AA2.04) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Individual jet pump flows</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(295029EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment pressure</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(230000A2.12) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve logic failure</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(219000A2.07) Ability to (a) predict the impacts of the following on the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(217000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air systems</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(264000A2.11) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failure of emergency generator to start/load</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(272000A2.04) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical failure</t>
+  </si>
+  <si>
+    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.42) CONDUCT OF OPERATIONS Knowledge of new and spent fuel movement procedures (SRO Only) (CFR: 43.7 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>700000</t>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295019</t>
   </si>
   <si>
     <t>295023</t>
   </si>
   <si>
-    <t>295018</t>
-  </si>
-  <si>
     <t>295001</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295006</t>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295036</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>295036</t>
-  </si>
-  <si>
-    <t>295020</t>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262002</t>
   </si>
   <si>
     <t>510000</t>
   </si>
   <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
     <t>215004</t>
   </si>
   <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>288000</t>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293004</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295014</t>
   </si>
   <si>
     <t>268000</t>
   </si>
   <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
     <t>272000</t>
   </si>
   <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>245000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>219000</t>
+    <t>239003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1446,7 +1446,7 @@
         <v>3.4</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>105</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D41" t="s">
         <v>105</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1769,7 +1769,7 @@
         <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
         <v>105</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
         <v>105</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>4.5</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
